--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H2">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I2">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J2">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N2">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O2">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P2">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q2">
-        <v>9.223004719430001</v>
+        <v>2.99315014615</v>
       </c>
       <c r="R2">
-        <v>36.89201887772001</v>
+        <v>11.9726005846</v>
       </c>
       <c r="S2">
-        <v>0.0219126666419856</v>
+        <v>0.0248056499475409</v>
       </c>
       <c r="T2">
-        <v>0.01106355141864527</v>
+        <v>0.01422887697822262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H3">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I3">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J3">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N3">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O3">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P3">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q3">
-        <v>6.681758119524167</v>
+        <v>5.638853218841666</v>
       </c>
       <c r="R3">
-        <v>40.090548717145</v>
+        <v>33.83311931305</v>
       </c>
       <c r="S3">
-        <v>0.01587499331395359</v>
+        <v>0.04673184177949381</v>
       </c>
       <c r="T3">
-        <v>0.01202275886836066</v>
+        <v>0.04020908315559578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H4">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I4">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J4">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N4">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O4">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P4">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q4">
-        <v>17.552955170895</v>
+        <v>0.9109401772</v>
       </c>
       <c r="R4">
-        <v>105.31773102537</v>
+        <v>5.465641063200001</v>
       </c>
       <c r="S4">
-        <v>0.04170355181877328</v>
+        <v>0.007549391796411961</v>
       </c>
       <c r="T4">
-        <v>0.03158374542624771</v>
+        <v>0.006495659296897269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H5">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I5">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J5">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N5">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O5">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P5">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q5">
-        <v>2.17565080213625</v>
+        <v>5.6925604467</v>
       </c>
       <c r="R5">
-        <v>8.702603208545</v>
+        <v>22.7702417868</v>
       </c>
       <c r="S5">
-        <v>0.005169064985529638</v>
+        <v>0.04717693896101017</v>
       </c>
       <c r="T5">
-        <v>0.002609824590867045</v>
+        <v>0.02706136957124471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H6">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I6">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J6">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N6">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O6">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P6">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q6">
-        <v>4.007213958637501</v>
+        <v>0.3799747340333333</v>
       </c>
       <c r="R6">
-        <v>24.043283751825</v>
+        <v>2.2798484042</v>
       </c>
       <c r="S6">
-        <v>0.009520622216938623</v>
+        <v>0.003149030212688992</v>
       </c>
       <c r="T6">
-        <v>0.007210342891319529</v>
+        <v>0.00270949341733534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H7">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I7">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J7">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N7">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O7">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P7">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q7">
-        <v>32.26777938288583</v>
+        <v>1.2996790166</v>
       </c>
       <c r="R7">
-        <v>193.606676297315</v>
+        <v>7.7980740996</v>
       </c>
       <c r="S7">
-        <v>0.07666407146086894</v>
+        <v>0.01077105429255273</v>
       </c>
       <c r="T7">
-        <v>0.05806072650315019</v>
+        <v>0.009267647095234619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3.981953</v>
       </c>
       <c r="I8">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J8">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N8">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O8">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P8">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q8">
-        <v>3.242483090817334</v>
+        <v>1.246906107784667</v>
       </c>
       <c r="R8">
-        <v>19.454898544904</v>
+        <v>7.481436646708</v>
       </c>
       <c r="S8">
-        <v>0.007703720557756202</v>
+        <v>0.01033370025454349</v>
       </c>
       <c r="T8">
-        <v>0.00583433156936991</v>
+        <v>0.008891338261405052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.981953</v>
       </c>
       <c r="I9">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J9">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N9">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O9">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P9">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q9">
         <v>2.349070436215444</v>
@@ -1013,10 +1013,10 @@
         <v>21.141633925939</v>
       </c>
       <c r="S9">
-        <v>0.005581087612249856</v>
+        <v>0.01946785697263759</v>
       </c>
       <c r="T9">
-        <v>0.006340166820066882</v>
+        <v>0.02512584514326333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.981953</v>
       </c>
       <c r="I10">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J10">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N10">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O10">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P10">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q10">
-        <v>6.170999806126001</v>
+        <v>0.3794854301706667</v>
       </c>
       <c r="R10">
-        <v>55.538998255134</v>
+        <v>3.415368871536</v>
       </c>
       <c r="S10">
-        <v>0.01466149760441128</v>
+        <v>0.003144975120313856</v>
       </c>
       <c r="T10">
-        <v>0.0166555960239631</v>
+        <v>0.004059006492778641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>3.981953</v>
       </c>
       <c r="I11">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J11">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N11">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O11">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P11">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q11">
-        <v>0.7648820695698333</v>
+        <v>2.371444145244</v>
       </c>
       <c r="R11">
-        <v>4.589292417418999</v>
+        <v>14.228664871464</v>
       </c>
       <c r="S11">
-        <v>0.001817260894988638</v>
+        <v>0.0196532784740963</v>
       </c>
       <c r="T11">
-        <v>0.001376283385401213</v>
+        <v>0.01691010408221874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>3.981953</v>
       </c>
       <c r="I12">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J12">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N12">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O12">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P12">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q12">
-        <v>1.408795061635</v>
+        <v>0.1582923654128889</v>
       </c>
       <c r="R12">
-        <v>12.679155554715</v>
+        <v>1.424631288716</v>
       </c>
       <c r="S12">
-        <v>0.003347114903611496</v>
+        <v>0.00131184364768702</v>
       </c>
       <c r="T12">
-        <v>0.003802353291901508</v>
+        <v>0.001693107792515902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.981953</v>
       </c>
       <c r="I13">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J13">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N13">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O13">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P13">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q13">
-        <v>11.34421289049255</v>
+        <v>0.5414288040453334</v>
       </c>
       <c r="R13">
-        <v>102.097916014433</v>
+        <v>4.872859236408</v>
       </c>
       <c r="S13">
-        <v>0.02695238297573398</v>
+        <v>0.004487076400741037</v>
       </c>
       <c r="T13">
-        <v>0.03061815476421048</v>
+        <v>0.005791165763621079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H14">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I14">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J14">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N14">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O14">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P14">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q14">
-        <v>12.673921594632</v>
+        <v>3.352201655397333</v>
       </c>
       <c r="R14">
-        <v>76.04352956779201</v>
+        <v>20.113209932384</v>
       </c>
       <c r="S14">
-        <v>0.03011159892011821</v>
+        <v>0.027781279507248</v>
       </c>
       <c r="T14">
-        <v>0.02280470207437272</v>
+        <v>0.02390361122822161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H15">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I15">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J15">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N15">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O15">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P15">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q15">
-        <v>9.181831853857998</v>
+        <v>6.315277273696888</v>
       </c>
       <c r="R15">
-        <v>82.636486684722</v>
+        <v>56.837495463272</v>
       </c>
       <c r="S15">
-        <v>0.02181484523720264</v>
+        <v>0.05233768762802813</v>
       </c>
       <c r="T15">
-        <v>0.02478186467709841</v>
+        <v>0.06754871048963526</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H16">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I16">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J16">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N16">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O16">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P16">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q16">
-        <v>24.120640112148</v>
+        <v>1.020214496725333</v>
       </c>
       <c r="R16">
-        <v>217.085761009332</v>
+        <v>9.181930470528</v>
       </c>
       <c r="S16">
-        <v>0.05730752201127255</v>
+        <v>0.008454999729875554</v>
       </c>
       <c r="T16">
-        <v>0.06510187168512355</v>
+        <v>0.01091229580111325</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H17">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I17">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J17">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N17">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O17">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P17">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q17">
-        <v>2.989701135627</v>
+        <v>6.375427098912</v>
       </c>
       <c r="R17">
-        <v>17.938206813762</v>
+        <v>38.252562593472</v>
       </c>
       <c r="S17">
-        <v>0.007103143317941293</v>
+        <v>0.05283617765887774</v>
       </c>
       <c r="T17">
-        <v>0.005379490726711187</v>
+        <v>0.04546138521854463</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H18">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I18">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J18">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N18">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O18">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P18">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q18">
-        <v>5.506569395730001</v>
+        <v>0.4255556421297778</v>
       </c>
       <c r="R18">
-        <v>49.55912456157</v>
+        <v>3.830000779168</v>
       </c>
       <c r="S18">
-        <v>0.01308289686281857</v>
+        <v>0.003526780741504184</v>
       </c>
       <c r="T18">
-        <v>0.01486229107350661</v>
+        <v>0.004551777162212828</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H19">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I19">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J19">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N19">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O19">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P19">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q19">
-        <v>44.34122266792599</v>
+        <v>1.455585566442667</v>
       </c>
       <c r="R19">
-        <v>399.071004011334</v>
+        <v>13.100270097984</v>
       </c>
       <c r="S19">
-        <v>0.1053490115616428</v>
+        <v>0.01206312555897433</v>
       </c>
       <c r="T19">
-        <v>0.1196774453359124</v>
+        <v>0.01556905956133425</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H20">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I20">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J20">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N20">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O20">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P20">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q20">
-        <v>2.213857517790001</v>
+        <v>1.181946135933</v>
       </c>
       <c r="R20">
-        <v>8.855430071160002</v>
+        <v>4.727784543732</v>
       </c>
       <c r="S20">
-        <v>0.005259839201641882</v>
+        <v>0.009795346265042757</v>
       </c>
       <c r="T20">
-        <v>0.002655655854758988</v>
+        <v>0.005618751262681704</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H21">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I21">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J21">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N21">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O21">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P21">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q21">
-        <v>1.6038656484475</v>
+        <v>2.2266910938885</v>
       </c>
       <c r="R21">
-        <v>9.623193890685002</v>
+        <v>13.360146563331</v>
       </c>
       <c r="S21">
-        <v>0.003810577394471308</v>
+        <v>0.01845364152124195</v>
       </c>
       <c r="T21">
-        <v>0.002885900627289455</v>
+        <v>0.01587791061076407</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H22">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I22">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J22">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N22">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O22">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P22">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q22">
-        <v>4.213349439435001</v>
+        <v>0.359715406824</v>
       </c>
       <c r="R22">
-        <v>25.28009663661</v>
+        <v>2.158292440944</v>
       </c>
       <c r="S22">
-        <v>0.01001037346517177</v>
+        <v>0.002981131592710363</v>
       </c>
       <c r="T22">
-        <v>0.007581250837328569</v>
+        <v>0.002565029828583895</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H23">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I23">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J23">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N23">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O23">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P23">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q23">
-        <v>0.52223554372125</v>
+        <v>2.247899201514</v>
       </c>
       <c r="R23">
-        <v>2.088942174885</v>
+        <v>8.991596806056</v>
       </c>
       <c r="S23">
-        <v>0.0012407641247382</v>
+        <v>0.01862940313296216</v>
       </c>
       <c r="T23">
-        <v>0.0006264530883771789</v>
+        <v>0.01068609312463961</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H24">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I24">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J24">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N24">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O24">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P24">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q24">
-        <v>0.9618775027875003</v>
+        <v>0.150045820194</v>
       </c>
       <c r="R24">
-        <v>5.771265016725001</v>
+        <v>0.900274921164</v>
       </c>
       <c r="S24">
-        <v>0.002285296572016792</v>
+        <v>0.00124350062980018</v>
       </c>
       <c r="T24">
-        <v>0.001730745272434161</v>
+        <v>0.001069934723814191</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H25">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I25">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J25">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N25">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O25">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P25">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q25">
-        <v>7.7454439352825</v>
+        <v>0.513222029172</v>
       </c>
       <c r="R25">
-        <v>46.472663611695</v>
+        <v>3.079332175032</v>
       </c>
       <c r="S25">
-        <v>0.01840217327336723</v>
+        <v>0.004253313525678793</v>
       </c>
       <c r="T25">
-        <v>0.01393669197485698</v>
+        <v>0.003659642563368521</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H26">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I26">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J26">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N26">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O26">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P26">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q26">
-        <v>7.876066475434668</v>
+        <v>10.88799146188867</v>
       </c>
       <c r="R26">
-        <v>47.25639885260801</v>
+        <v>65.327948771332</v>
       </c>
       <c r="S26">
-        <v>0.01871251553875216</v>
+        <v>0.09023393135918187</v>
       </c>
       <c r="T26">
-        <v>0.01417172641862612</v>
+        <v>0.07763921795758862</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H27">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I27">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J27">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N27">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O27">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P27">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q27">
-        <v>5.705946459214223</v>
+        <v>20.51209685573678</v>
       </c>
       <c r="R27">
-        <v>51.35351813292801</v>
+        <v>184.608871701631</v>
       </c>
       <c r="S27">
-        <v>0.01355659098540574</v>
+        <v>0.1699934415077491</v>
       </c>
       <c r="T27">
-        <v>0.01540041195021459</v>
+        <v>0.2193990274685798</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H28">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I28">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J28">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N28">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O28">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P28">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q28">
-        <v>14.989501357952</v>
+        <v>3.313669006682666</v>
       </c>
       <c r="R28">
-        <v>134.905512221568</v>
+        <v>29.823021060144</v>
       </c>
       <c r="S28">
-        <v>0.03561311702404639</v>
+        <v>0.02746194123522812</v>
       </c>
       <c r="T28">
-        <v>0.04045682823889515</v>
+        <v>0.03544326855182638</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H29">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I29">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J29">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N29">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O29">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P29">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q29">
-        <v>1.857916250314667</v>
+        <v>20.707464214476</v>
       </c>
       <c r="R29">
-        <v>11.147497501888</v>
+        <v>124.244785286856</v>
       </c>
       <c r="S29">
-        <v>0.004414168774749283</v>
+        <v>0.1716125431483047</v>
       </c>
       <c r="T29">
-        <v>0.003343024197459689</v>
+        <v>0.1476591282353733</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H30">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I30">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J30">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N30">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O30">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P30">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q30">
-        <v>3.421995811520001</v>
+        <v>1.382209865151556</v>
       </c>
       <c r="R30">
-        <v>30.79796230368001</v>
+        <v>12.439888786364</v>
       </c>
       <c r="S30">
-        <v>0.008130219570433334</v>
+        <v>0.01145502644198756</v>
       </c>
       <c r="T30">
-        <v>0.009236004152162046</v>
+        <v>0.0147842271955202</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H31">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I31">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J31">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N31">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O31">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P31">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q31">
-        <v>27.55535567480178</v>
+        <v>4.727759499181333</v>
       </c>
       <c r="R31">
-        <v>247.998201073216</v>
+        <v>42.549835492632</v>
       </c>
       <c r="S31">
-        <v>0.06546796206568506</v>
+        <v>0.03918117750414256</v>
       </c>
       <c r="T31">
-        <v>0.07437220658482495</v>
+        <v>0.05056849348561964</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H32">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I32">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J32">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
-        <v>2.442884</v>
+        <v>0.939418</v>
       </c>
       <c r="N32">
-        <v>4.885768000000001</v>
+        <v>1.878836</v>
       </c>
       <c r="O32">
-        <v>0.1282605310873426</v>
+        <v>0.1769507676039001</v>
       </c>
       <c r="P32">
-        <v>0.09027715775239338</v>
+        <v>0.1423284374086933</v>
       </c>
       <c r="Q32">
-        <v>18.75530949645734</v>
+        <v>1.689400481464</v>
       </c>
       <c r="R32">
-        <v>112.531856978744</v>
+        <v>10.136402888784</v>
       </c>
       <c r="S32">
-        <v>0.04456019022708857</v>
+        <v>0.01400086027034305</v>
       </c>
       <c r="T32">
-        <v>0.03374719041662037</v>
+        <v>0.01204664172057374</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H33">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I33">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J33">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>1.769787666666667</v>
       </c>
       <c r="N33">
-        <v>5.309363</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O33">
-        <v>0.09292046042239237</v>
+        <v>0.3333609597778432</v>
       </c>
       <c r="P33">
-        <v>0.09810416727026755</v>
+        <v>0.4022029274644153</v>
       </c>
       <c r="Q33">
-        <v>13.58759377495878</v>
+        <v>3.182694110774666</v>
       </c>
       <c r="R33">
-        <v>122.288343974629</v>
+        <v>28.644246996972</v>
       </c>
       <c r="S33">
-        <v>0.03228236587910922</v>
+        <v>0.0263764903686926</v>
       </c>
       <c r="T33">
-        <v>0.03667306432723755</v>
+        <v>0.0340423505965771</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H34">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I34">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J34">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>4.649226000000001</v>
+        <v>0.285904</v>
       </c>
       <c r="N34">
-        <v>13.947678</v>
+        <v>0.857712</v>
       </c>
       <c r="O34">
-        <v>0.2441017239889744</v>
+        <v>0.05385348403056514</v>
       </c>
       <c r="P34">
-        <v>0.2577193037175704</v>
+        <v>0.06497470173377835</v>
       </c>
       <c r="Q34">
-        <v>35.694561243586</v>
+        <v>0.514154886592</v>
       </c>
       <c r="R34">
-        <v>321.251051192274</v>
+        <v>4.627393979328001</v>
       </c>
       <c r="S34">
-        <v>0.08480566206529908</v>
+        <v>0.004261044556025283</v>
       </c>
       <c r="T34">
-        <v>0.09634001150601229</v>
+        <v>0.005499441762578928</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H35">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I35">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J35">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.5762615</v>
+        <v>1.786644</v>
       </c>
       <c r="N35">
-        <v>1.152523</v>
+        <v>3.573288</v>
       </c>
       <c r="O35">
-        <v>0.03025588035911189</v>
+        <v>0.3365360544878876</v>
       </c>
       <c r="P35">
-        <v>0.0212958332618867</v>
+        <v>0.2706891380893462</v>
       </c>
       <c r="Q35">
-        <v>4.424263609484833</v>
+        <v>3.213007664112</v>
       </c>
       <c r="R35">
-        <v>26.545581656909</v>
+        <v>19.278045984672</v>
       </c>
       <c r="S35">
-        <v>0.01051147826116483</v>
+        <v>0.02662771311263654</v>
       </c>
       <c r="T35">
-        <v>0.007960757273070385</v>
+        <v>0.02291105785732522</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H36">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I36">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J36">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>1.061385</v>
+        <v>0.1192573333333333</v>
       </c>
       <c r="N36">
-        <v>3.184155000000001</v>
+        <v>0.357772</v>
       </c>
       <c r="O36">
-        <v>0.05572667543286508</v>
+        <v>0.02246356432996548</v>
       </c>
       <c r="P36">
-        <v>0.05883547136152845</v>
+        <v>0.02710248776826877</v>
       </c>
       <c r="Q36">
-        <v>8.148812702485001</v>
+        <v>0.2144661868853333</v>
       </c>
       <c r="R36">
-        <v>73.33931432236501</v>
+        <v>1.930195681968</v>
       </c>
       <c r="S36">
-        <v>0.01936052530704626</v>
+        <v>0.001777382656297542</v>
       </c>
       <c r="T36">
-        <v>0.02199373468020459</v>
+        <v>0.002293947476870311</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H37">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I37">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J37">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.546720333333333</v>
+        <v>0.407912</v>
       </c>
       <c r="N37">
-        <v>25.640161</v>
+        <v>1.223736</v>
       </c>
       <c r="O37">
-        <v>0.4487347287093137</v>
+        <v>0.07683516976983844</v>
       </c>
       <c r="P37">
-        <v>0.4737680666363536</v>
+        <v>0.09270230753549791</v>
       </c>
       <c r="Q37">
-        <v>65.61768181842922</v>
+        <v>0.733567729376</v>
       </c>
       <c r="R37">
-        <v>590.559136365863</v>
+        <v>6.602109564384</v>
       </c>
       <c r="S37">
-        <v>0.1558991273720156</v>
+        <v>0.006079422487748983</v>
       </c>
       <c r="T37">
-        <v>0.1771028414733984</v>
+        <v>0.007846299066319798</v>
       </c>
     </row>
   </sheetData>
